--- a/data/pca/factorExposure/factorExposure_2010-07-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-19.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01634661715291268</v>
+        <v>-0.01671147204909718</v>
       </c>
       <c r="C2">
-        <v>-0.0009702320506546877</v>
+        <v>0.0008127010732412906</v>
       </c>
       <c r="D2">
-        <v>0.009157165655099348</v>
+        <v>0.007331084381712991</v>
       </c>
       <c r="E2">
-        <v>-0.03152903860578754</v>
+        <v>0.002573590625719266</v>
       </c>
       <c r="F2">
-        <v>0.01300384624994996</v>
+        <v>0.01150975485869704</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1211761159452226</v>
+        <v>-0.09515179765562629</v>
       </c>
       <c r="C4">
-        <v>0.09102415497182081</v>
+        <v>0.01816885038738289</v>
       </c>
       <c r="D4">
-        <v>-0.003978612687053892</v>
+        <v>0.07691450235884142</v>
       </c>
       <c r="E4">
-        <v>-0.003158480491120728</v>
+        <v>-0.02753787405185395</v>
       </c>
       <c r="F4">
-        <v>0.1581261998313278</v>
+        <v>-0.0417467539877047</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1255884945541738</v>
+        <v>-0.150885013729305</v>
       </c>
       <c r="C6">
-        <v>0.06085831562008582</v>
+        <v>0.02436936755767778</v>
       </c>
       <c r="D6">
-        <v>-0.01523154412267962</v>
+        <v>-0.0173757716941411</v>
       </c>
       <c r="E6">
-        <v>0.01464450487440651</v>
+        <v>-0.01164125800598131</v>
       </c>
       <c r="F6">
-        <v>0.04410862424999008</v>
+        <v>-0.03888316048085388</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0707454532542465</v>
+        <v>-0.06336967841617873</v>
       </c>
       <c r="C7">
-        <v>0.08787693534047539</v>
+        <v>0.0008350157684372666</v>
       </c>
       <c r="D7">
-        <v>0.003232988555757964</v>
+        <v>0.04976847964242175</v>
       </c>
       <c r="E7">
-        <v>0.00729627787432738</v>
+        <v>-0.01362897789969031</v>
       </c>
       <c r="F7">
-        <v>0.01845104249895887</v>
+        <v>-0.05745308610619523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.03822718064556652</v>
+        <v>-0.05983858371152289</v>
       </c>
       <c r="C8">
-        <v>0.01011051987525937</v>
+        <v>-0.01282895518148126</v>
       </c>
       <c r="D8">
-        <v>0.01013872762880647</v>
+        <v>0.02782622758986909</v>
       </c>
       <c r="E8">
-        <v>-0.04520889150561806</v>
+        <v>-0.01019301723904088</v>
       </c>
       <c r="F8">
-        <v>0.1122244278836182</v>
+        <v>0.02152692806162411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0889989424975997</v>
+        <v>-0.07337971070836122</v>
       </c>
       <c r="C9">
-        <v>0.06428035990745491</v>
+        <v>0.01510392141387425</v>
       </c>
       <c r="D9">
-        <v>-0.01511985208585029</v>
+        <v>0.07365905564507327</v>
       </c>
       <c r="E9">
-        <v>0.004936998915760572</v>
+        <v>-0.02067891070649675</v>
       </c>
       <c r="F9">
-        <v>0.1341897699055535</v>
+        <v>-0.06213038196168093</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.127181852154</v>
+        <v>-0.09099304727647647</v>
       </c>
       <c r="C10">
-        <v>-0.183775199982756</v>
+        <v>0.01265590095541627</v>
       </c>
       <c r="D10">
-        <v>0.0206676550988412</v>
+        <v>-0.1732728471873842</v>
       </c>
       <c r="E10">
-        <v>0.01464914722709242</v>
+        <v>0.03379212637436384</v>
       </c>
       <c r="F10">
-        <v>-0.05623028245652357</v>
+        <v>0.05107401783677658</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06670044668910317</v>
+        <v>-0.08889936028501155</v>
       </c>
       <c r="C11">
-        <v>0.05748919899239245</v>
+        <v>0.01427028290589318</v>
       </c>
       <c r="D11">
-        <v>-0.04634262890423362</v>
+        <v>0.1039728552523978</v>
       </c>
       <c r="E11">
-        <v>0.006902040191831079</v>
+        <v>-0.03994744668123543</v>
       </c>
       <c r="F11">
-        <v>0.1034528736558555</v>
+        <v>-0.02836811225809279</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07432337478874244</v>
+        <v>-0.0945028950275283</v>
       </c>
       <c r="C12">
-        <v>0.06458992775198814</v>
+        <v>0.01200234348192286</v>
       </c>
       <c r="D12">
-        <v>-0.05738148087708698</v>
+        <v>0.1074739364217447</v>
       </c>
       <c r="E12">
-        <v>0.04384980099285044</v>
+        <v>-0.03805890952028321</v>
       </c>
       <c r="F12">
-        <v>0.1234087346060885</v>
+        <v>-0.03173447877227699</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04225022816541889</v>
+        <v>-0.04402270665439395</v>
       </c>
       <c r="C13">
-        <v>0.04270889529508716</v>
+        <v>0.004564048001461065</v>
       </c>
       <c r="D13">
-        <v>0.0228173241519776</v>
+        <v>0.0342921511713875</v>
       </c>
       <c r="E13">
-        <v>0.01159577755950372</v>
+        <v>0.01426381886675795</v>
       </c>
       <c r="F13">
-        <v>0.07316679871121569</v>
+        <v>-0.02164521145776083</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0477924502679053</v>
+        <v>-0.02233340233269644</v>
       </c>
       <c r="C14">
-        <v>0.03332428786306623</v>
+        <v>0.01515404544323758</v>
       </c>
       <c r="D14">
-        <v>-0.008028231028475679</v>
+        <v>0.02738225640332986</v>
       </c>
       <c r="E14">
-        <v>0.01424992808676627</v>
+        <v>-0.01545676523117402</v>
       </c>
       <c r="F14">
-        <v>0.06398981809997202</v>
+        <v>-0.02741098335414815</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02691769671154881</v>
+        <v>-0.03271388675872979</v>
       </c>
       <c r="C15">
-        <v>0.01696747306638344</v>
+        <v>0.0063104688461403</v>
       </c>
       <c r="D15">
-        <v>0.07165742205128213</v>
+        <v>0.03646010032905448</v>
       </c>
       <c r="E15">
-        <v>-0.02941859961387431</v>
+        <v>-0.006921850243393267</v>
       </c>
       <c r="F15">
-        <v>0.01755032281844938</v>
+        <v>-0.03533456344757917</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07864567023186329</v>
+        <v>-0.07627709618758811</v>
       </c>
       <c r="C16">
-        <v>0.07241828611484726</v>
+        <v>0.006032132270190045</v>
       </c>
       <c r="D16">
-        <v>-0.0436770520295181</v>
+        <v>0.1063578209203607</v>
       </c>
       <c r="E16">
-        <v>0.03067081353710639</v>
+        <v>-0.05579775027935328</v>
       </c>
       <c r="F16">
-        <v>0.1037904256814494</v>
+        <v>-0.03687481412718063</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01580304128894611</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004257314140582417</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02500789895283679</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01102737761919543</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03191002544471901</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04369735011265619</v>
+        <v>-0.06189577636877668</v>
       </c>
       <c r="C20">
-        <v>0.02179308956333062</v>
+        <v>0.003547169566873664</v>
       </c>
       <c r="D20">
-        <v>0.03204574461626413</v>
+        <v>0.06327750853073616</v>
       </c>
       <c r="E20">
-        <v>0.02736699556467279</v>
+        <v>-0.04926502426145211</v>
       </c>
       <c r="F20">
-        <v>0.06033479395345962</v>
+        <v>-0.03372645558696199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03177666095029754</v>
+        <v>-0.03788959811153355</v>
       </c>
       <c r="C21">
-        <v>0.02461768603069499</v>
+        <v>0.008259459051684927</v>
       </c>
       <c r="D21">
-        <v>-0.01064955082608876</v>
+        <v>0.03494258109356582</v>
       </c>
       <c r="E21">
-        <v>0.0004009202006454943</v>
+        <v>0.01275427255944027</v>
       </c>
       <c r="F21">
-        <v>0.06329519523411765</v>
+        <v>0.01535237913037769</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0562949391408179</v>
+        <v>-0.04300884531590808</v>
       </c>
       <c r="C22">
-        <v>0.02781667784511847</v>
+        <v>0.0007558343405228852</v>
       </c>
       <c r="D22">
-        <v>0.649616088171135</v>
+        <v>-0.001479173739740676</v>
       </c>
       <c r="E22">
-        <v>0.124963611107922</v>
+        <v>-0.03492384855942374</v>
       </c>
       <c r="F22">
-        <v>-0.02345652578775982</v>
+        <v>0.02750168876171039</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05686951209551494</v>
+        <v>-0.04304630215714084</v>
       </c>
       <c r="C23">
-        <v>0.02900062059724254</v>
+        <v>0.0007788836660375061</v>
       </c>
       <c r="D23">
-        <v>0.651685259043983</v>
+        <v>-0.001300898588657906</v>
       </c>
       <c r="E23">
-        <v>0.1257480844589594</v>
+        <v>-0.03528827135881647</v>
       </c>
       <c r="F23">
-        <v>-0.01813424104540335</v>
+        <v>0.02692774336511062</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07754185220085613</v>
+        <v>-0.08209963205293762</v>
       </c>
       <c r="C24">
-        <v>0.06908464305334248</v>
+        <v>0.005924658608137659</v>
       </c>
       <c r="D24">
-        <v>-0.03542817182715344</v>
+        <v>0.1088371262048143</v>
       </c>
       <c r="E24">
-        <v>0.02927862097632655</v>
+        <v>-0.04350017381552281</v>
       </c>
       <c r="F24">
-        <v>0.1042058898054381</v>
+        <v>-0.02872519952289478</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07702994887971254</v>
+        <v>-0.08681860925747908</v>
       </c>
       <c r="C25">
-        <v>0.05257147152932473</v>
+        <v>0.008264900484861311</v>
       </c>
       <c r="D25">
-        <v>-0.05668022200363837</v>
+        <v>0.09398118004709369</v>
       </c>
       <c r="E25">
-        <v>0.02725847162992473</v>
+        <v>-0.02536000699097677</v>
       </c>
       <c r="F25">
-        <v>0.1107580041727214</v>
+        <v>-0.03862330810003137</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04239191005876908</v>
+        <v>-0.05680608586250617</v>
       </c>
       <c r="C26">
-        <v>0.01930515616477877</v>
+        <v>0.01561664167885721</v>
       </c>
       <c r="D26">
-        <v>0.009743045250965395</v>
+        <v>0.02747573291459658</v>
       </c>
       <c r="E26">
-        <v>0.07157321773784116</v>
+        <v>-0.02355637986390931</v>
       </c>
       <c r="F26">
-        <v>0.07493124426755179</v>
+        <v>-0.005041498893037418</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1535476440734915</v>
+        <v>-0.1364694083651084</v>
       </c>
       <c r="C28">
-        <v>-0.2754171115173336</v>
+        <v>0.009914807469406598</v>
       </c>
       <c r="D28">
-        <v>-0.00370242901219776</v>
+        <v>-0.2783461243861331</v>
       </c>
       <c r="E28">
-        <v>0.009081218190054611</v>
+        <v>0.06735039742937957</v>
       </c>
       <c r="F28">
-        <v>0.02094652903089305</v>
+        <v>-0.04957499414785498</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04236796229223858</v>
+        <v>-0.02760892750672546</v>
       </c>
       <c r="C29">
-        <v>0.02835595361919837</v>
+        <v>0.009428038870282051</v>
       </c>
       <c r="D29">
-        <v>-0.01024259602027834</v>
+        <v>0.0254720672070945</v>
       </c>
       <c r="E29">
-        <v>0.01691619428337567</v>
+        <v>-0.008044149229487903</v>
       </c>
       <c r="F29">
-        <v>0.05743834056877809</v>
+        <v>0.005770809253882859</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08766075219167858</v>
+        <v>-0.06650430636546045</v>
       </c>
       <c r="C30">
-        <v>0.05565370240503876</v>
+        <v>0.008599497833129462</v>
       </c>
       <c r="D30">
-        <v>-0.02017709054243333</v>
+        <v>0.06949044879038012</v>
       </c>
       <c r="E30">
-        <v>0.1791161796920658</v>
+        <v>-0.01943658844147887</v>
       </c>
       <c r="F30">
-        <v>0.2390120173637099</v>
+        <v>-0.1253914166066156</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02804091451131723</v>
+        <v>-0.04858262099764107</v>
       </c>
       <c r="C31">
-        <v>0.05427470476823759</v>
+        <v>0.01524947537185742</v>
       </c>
       <c r="D31">
-        <v>0.002940584346338947</v>
+        <v>0.0293303614453038</v>
       </c>
       <c r="E31">
-        <v>0.0004969609914567964</v>
+        <v>-0.02600223259476268</v>
       </c>
       <c r="F31">
-        <v>0.0414945527403085</v>
+        <v>0.002488555102505864</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05952116798533526</v>
+        <v>-0.04864597472942898</v>
       </c>
       <c r="C32">
-        <v>0.003974737516843456</v>
+        <v>0.001275669768355858</v>
       </c>
       <c r="D32">
-        <v>-0.04109259110141682</v>
+        <v>0.02231903876804109</v>
       </c>
       <c r="E32">
-        <v>-0.07899917551396846</v>
+        <v>-0.02353322345688524</v>
       </c>
       <c r="F32">
-        <v>0.09013410680829041</v>
+        <v>-0.007216806926203906</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0917632551811286</v>
+        <v>-0.09224294591280532</v>
       </c>
       <c r="C33">
-        <v>0.06652906619807061</v>
+        <v>0.01137744771211628</v>
       </c>
       <c r="D33">
-        <v>-0.02220692962491842</v>
+        <v>0.0841781201728407</v>
       </c>
       <c r="E33">
-        <v>0.03004104524538611</v>
+        <v>-0.04253185404792107</v>
       </c>
       <c r="F33">
-        <v>0.07464211793099736</v>
+        <v>-0.04404723113245344</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06836266412159242</v>
+        <v>-0.06928116775655116</v>
       </c>
       <c r="C34">
-        <v>0.05378964744802345</v>
+        <v>0.01368028381506023</v>
       </c>
       <c r="D34">
-        <v>-0.05212459259958156</v>
+        <v>0.08851851974961798</v>
       </c>
       <c r="E34">
-        <v>0.01906913956359071</v>
+        <v>-0.02671533952455276</v>
       </c>
       <c r="F34">
-        <v>0.08778709139225499</v>
+        <v>-0.05372235825572953</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02358307446749603</v>
+        <v>-0.02440965591167199</v>
       </c>
       <c r="C35">
-        <v>0.02597288628485234</v>
+        <v>0.002444598687410565</v>
       </c>
       <c r="D35">
-        <v>-0.007071068515501808</v>
+        <v>0.009659695050175703</v>
       </c>
       <c r="E35">
-        <v>0.02402453719640126</v>
+        <v>-0.01196975100347101</v>
       </c>
       <c r="F35">
-        <v>0.0169849525673198</v>
+        <v>-0.01334778445787348</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02982904944568431</v>
+        <v>-0.02653470348895945</v>
       </c>
       <c r="C36">
-        <v>0.01977298576956068</v>
+        <v>0.007236603746927348</v>
       </c>
       <c r="D36">
-        <v>0.01286506485174639</v>
+        <v>0.03844285708916453</v>
       </c>
       <c r="E36">
-        <v>0.03195513542544692</v>
+        <v>-0.01616028947454399</v>
       </c>
       <c r="F36">
-        <v>0.07706164880839089</v>
+        <v>-0.01375204307181638</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02651198204640332</v>
+        <v>-0.003163358494415508</v>
       </c>
       <c r="C38">
-        <v>0.05642603015154357</v>
+        <v>0.000606941315200854</v>
       </c>
       <c r="D38">
-        <v>0.02067188383065066</v>
+        <v>0.003819879107688312</v>
       </c>
       <c r="E38">
-        <v>0.05503695690350877</v>
+        <v>-0.004505149401480389</v>
       </c>
       <c r="F38">
-        <v>-0.1118769279242109</v>
+        <v>0.003723718323372605</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09342796657555129</v>
+        <v>-0.1125425218807354</v>
       </c>
       <c r="C39">
-        <v>0.07133413986902618</v>
+        <v>0.02012642834650381</v>
       </c>
       <c r="D39">
-        <v>-0.1217390900098477</v>
+        <v>0.1409560899820511</v>
       </c>
       <c r="E39">
-        <v>0.1310213195852291</v>
+        <v>-0.04813312778738862</v>
       </c>
       <c r="F39">
-        <v>0.1143169708731435</v>
+        <v>-0.04220299235750283</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02870328931583196</v>
+        <v>-0.03757410754884963</v>
       </c>
       <c r="C40">
-        <v>0.06286360706915151</v>
+        <v>0.007947094797554915</v>
       </c>
       <c r="D40">
-        <v>0.02421615094406229</v>
+        <v>0.0239550926142653</v>
       </c>
       <c r="E40">
-        <v>-0.05656413250678629</v>
+        <v>-0.00187163675484406</v>
       </c>
       <c r="F40">
-        <v>0.09165576773146021</v>
+        <v>0.01469914265289897</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03075701995664272</v>
+        <v>-0.02656980131213902</v>
       </c>
       <c r="C41">
-        <v>0.02516033374446562</v>
+        <v>0.006799074754908527</v>
       </c>
       <c r="D41">
-        <v>-0.02578901779990898</v>
+        <v>0.01049900535998527</v>
       </c>
       <c r="E41">
-        <v>0.02432222346733732</v>
+        <v>-0.01054247728630659</v>
       </c>
       <c r="F41">
-        <v>-0.002353398071503858</v>
+        <v>0.01258184492968481</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0477659522562616</v>
+        <v>-0.0433586951399358</v>
       </c>
       <c r="C43">
-        <v>0.05329589914696067</v>
+        <v>0.00734014008411365</v>
       </c>
       <c r="D43">
-        <v>0.006473626417767492</v>
+        <v>0.02078872979777496</v>
       </c>
       <c r="E43">
-        <v>0.06272676683070597</v>
+        <v>-0.02530944747904324</v>
       </c>
       <c r="F43">
-        <v>0.02025280729239935</v>
+        <v>0.01098804415663725</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0953537681386014</v>
+        <v>-0.07402025988471009</v>
       </c>
       <c r="C44">
-        <v>0.08300393113294091</v>
+        <v>0.02450121197838857</v>
       </c>
       <c r="D44">
-        <v>0.05944325425589544</v>
+        <v>0.09170842658337962</v>
       </c>
       <c r="E44">
-        <v>-0.01111012893510126</v>
+        <v>-0.06239187338484752</v>
       </c>
       <c r="F44">
-        <v>0.1587684651433266</v>
+        <v>-0.1851132651355903</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04332916400699308</v>
+        <v>-0.02435037112014509</v>
       </c>
       <c r="C46">
-        <v>0.04311459580861994</v>
+        <v>0.004110019693224964</v>
       </c>
       <c r="D46">
-        <v>0.04975736565943414</v>
+        <v>0.009585548745009623</v>
       </c>
       <c r="E46">
-        <v>-0.005198350999830115</v>
+        <v>-0.02308785158098519</v>
       </c>
       <c r="F46">
-        <v>0.03517592308848144</v>
+        <v>0.003208188949834162</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05302148027010384</v>
+        <v>-0.05319326639969711</v>
       </c>
       <c r="C47">
-        <v>0.04611481660081018</v>
+        <v>0.003384418628491523</v>
       </c>
       <c r="D47">
-        <v>0.0007608896102113606</v>
+        <v>0.01481354586295817</v>
       </c>
       <c r="E47">
-        <v>0.02986028292639884</v>
+        <v>-0.02265283087043568</v>
       </c>
       <c r="F47">
-        <v>0.01541176982995155</v>
+        <v>0.047584079219927</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04654011057509503</v>
+        <v>-0.04803810123533221</v>
       </c>
       <c r="C48">
-        <v>0.01397578615991518</v>
+        <v>0.003402674785227881</v>
       </c>
       <c r="D48">
-        <v>-0.01098659109991949</v>
+        <v>0.0424864034908958</v>
       </c>
       <c r="E48">
-        <v>-0.008972726700659191</v>
+        <v>0.008775400410813785</v>
       </c>
       <c r="F48">
-        <v>0.08449073898719402</v>
+        <v>-0.02015875971932234</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2354481004625101</v>
+        <v>-0.2078222162165521</v>
       </c>
       <c r="C49">
-        <v>0.06430709244505055</v>
+        <v>0.01703972492602335</v>
       </c>
       <c r="D49">
-        <v>-0.03535733820047626</v>
+        <v>-0.007080406941997145</v>
       </c>
       <c r="E49">
-        <v>-0.06674021209648413</v>
+        <v>-0.0425147242197856</v>
       </c>
       <c r="F49">
-        <v>-0.3124219845488077</v>
+        <v>-0.03172142993911861</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03708036383771939</v>
+        <v>-0.04863604813209589</v>
       </c>
       <c r="C50">
-        <v>0.0462467873063117</v>
+        <v>0.01153417148598813</v>
       </c>
       <c r="D50">
-        <v>-0.0136734095767355</v>
+        <v>0.02827581042117459</v>
       </c>
       <c r="E50">
-        <v>0.03860996796743366</v>
+        <v>-0.02815802504724125</v>
       </c>
       <c r="F50">
-        <v>0.05404199630963851</v>
+        <v>-0.005761390317488159</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03356311757113151</v>
+        <v>-0.003707304238612145</v>
       </c>
       <c r="C51">
-        <v>0.004870822492714716</v>
+        <v>0.0008516745207173051</v>
       </c>
       <c r="D51">
-        <v>-0.001847325371156057</v>
+        <v>-0.001485489903494347</v>
       </c>
       <c r="E51">
-        <v>-0.02091598946278807</v>
+        <v>-0.00176706943298836</v>
       </c>
       <c r="F51">
-        <v>-0.05800313572498831</v>
+        <v>-0.003873133193167857</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.01314523040324692</v>
+        <v>-0.1402934323523586</v>
       </c>
       <c r="C52">
-        <v>0.003547675101885929</v>
+        <v>0.01243478212585417</v>
       </c>
       <c r="D52">
-        <v>-0.02272192368166772</v>
+        <v>0.05397729227227051</v>
       </c>
       <c r="E52">
-        <v>-0.001401238255404676</v>
+        <v>-0.01500936706493184</v>
       </c>
       <c r="F52">
-        <v>0.004753686068220422</v>
+        <v>-0.02813559234453988</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1457116774621152</v>
+        <v>-0.1723377980119807</v>
       </c>
       <c r="C53">
-        <v>0.06044329426040854</v>
+        <v>0.01518312916578332</v>
       </c>
       <c r="D53">
-        <v>0.007863464324758715</v>
+        <v>0.02179640666822525</v>
       </c>
       <c r="E53">
-        <v>0.04921910072031722</v>
+        <v>-0.03905620497724882</v>
       </c>
       <c r="F53">
-        <v>-0.0998713141512283</v>
+        <v>-0.05512519481849279</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05879061833479519</v>
+        <v>-0.0223550109522385</v>
       </c>
       <c r="C54">
-        <v>0.03163493389444725</v>
+        <v>0.01313726026340179</v>
       </c>
       <c r="D54">
-        <v>0.009524209179416163</v>
+        <v>0.02805187436159196</v>
       </c>
       <c r="E54">
-        <v>-0.004529641184920776</v>
+        <v>-0.01554230851880334</v>
       </c>
       <c r="F54">
-        <v>0.1502099118733831</v>
+        <v>-0.002062978429535813</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08137834627210243</v>
+        <v>-0.1138653216662264</v>
       </c>
       <c r="C55">
-        <v>0.050176902084577</v>
+        <v>0.01437183076742141</v>
       </c>
       <c r="D55">
-        <v>-0.03384643160352343</v>
+        <v>0.01914989521166879</v>
       </c>
       <c r="E55">
-        <v>0.01567056708946133</v>
+        <v>-0.02994110370856964</v>
       </c>
       <c r="F55">
-        <v>-0.01765462340014198</v>
+        <v>-0.0466906980174946</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1332650414508476</v>
+        <v>-0.1768412547641023</v>
       </c>
       <c r="C56">
-        <v>0.09090814612388157</v>
+        <v>0.0124523573545286</v>
       </c>
       <c r="D56">
-        <v>-0.01862212818798976</v>
+        <v>0.02114854294242394</v>
       </c>
       <c r="E56">
-        <v>0.04224289323244429</v>
+        <v>-0.04301784272912026</v>
       </c>
       <c r="F56">
-        <v>-0.04572306464632164</v>
+        <v>-0.02380151955598163</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03336112494166019</v>
+        <v>-0.0469863580627834</v>
       </c>
       <c r="C58">
-        <v>0.0311817332111679</v>
+        <v>0.004033421687191894</v>
       </c>
       <c r="D58">
-        <v>0.0322088505854965</v>
+        <v>0.05722205112330225</v>
       </c>
       <c r="E58">
-        <v>0.02917560646153385</v>
+        <v>-0.0131732124118272</v>
       </c>
       <c r="F58">
-        <v>0.02883172542982373</v>
+        <v>0.04338662825140918</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2153692246463379</v>
+        <v>-0.1703706981457096</v>
       </c>
       <c r="C59">
-        <v>-0.2418354413021683</v>
+        <v>0.01176376536512564</v>
       </c>
       <c r="D59">
-        <v>-0.0434156262091417</v>
+        <v>-0.2354158519244979</v>
       </c>
       <c r="E59">
-        <v>-0.04532740541540595</v>
+        <v>0.04633933588810863</v>
       </c>
       <c r="F59">
-        <v>-0.01072156453109146</v>
+        <v>0.02915083805741867</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2339516174310856</v>
+        <v>-0.2403867423771533</v>
       </c>
       <c r="C60">
-        <v>0.1384418457203751</v>
+        <v>-0.004410784316098175</v>
       </c>
       <c r="D60">
-        <v>-0.07562491160076582</v>
+        <v>0.05578686068813764</v>
       </c>
       <c r="E60">
-        <v>-0.03462782997694411</v>
+        <v>-0.01275628788179739</v>
       </c>
       <c r="F60">
-        <v>-0.13736410457717</v>
+        <v>0.04945983466437383</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09194161610293314</v>
+        <v>-0.08648626508740594</v>
       </c>
       <c r="C61">
-        <v>0.06244497770081571</v>
+        <v>0.0153331205355315</v>
       </c>
       <c r="D61">
-        <v>-0.07111773131049481</v>
+        <v>0.1017338209532224</v>
       </c>
       <c r="E61">
-        <v>0.07313817376121484</v>
+        <v>-0.03356448529450399</v>
       </c>
       <c r="F61">
-        <v>0.1223221881008018</v>
+        <v>-0.02733697501808289</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1346958753982456</v>
+        <v>-0.1685038917085204</v>
       </c>
       <c r="C62">
-        <v>0.08224240624313012</v>
+        <v>0.0163886543037434</v>
       </c>
       <c r="D62">
-        <v>-0.01265221612825727</v>
+        <v>0.0206381681552406</v>
       </c>
       <c r="E62">
-        <v>0.03812280256113356</v>
+        <v>-0.03874455550679312</v>
       </c>
       <c r="F62">
-        <v>-0.05178799902518572</v>
+        <v>-0.01146743966475104</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04372401601865811</v>
+        <v>-0.0429430376489054</v>
       </c>
       <c r="C63">
-        <v>0.01858670978248211</v>
+        <v>0.004604759382025395</v>
       </c>
       <c r="D63">
-        <v>-0.01018207684855445</v>
+        <v>0.0443822890720293</v>
       </c>
       <c r="E63">
-        <v>0.04292816589302209</v>
+        <v>-0.01326097963245271</v>
       </c>
       <c r="F63">
-        <v>0.0621306030556867</v>
+        <v>-0.01395996316099117</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09865408229922873</v>
+        <v>-0.1123051083800023</v>
       </c>
       <c r="C64">
-        <v>0.05841615278221707</v>
+        <v>0.01212905439455909</v>
       </c>
       <c r="D64">
-        <v>-0.005768545435459086</v>
+        <v>0.03920851681950668</v>
       </c>
       <c r="E64">
-        <v>0.04912177022170948</v>
+        <v>-0.01874237118993275</v>
       </c>
       <c r="F64">
-        <v>0.05093883383027761</v>
+        <v>-0.0164511817629753</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1179131613933402</v>
+        <v>-0.1420995908256543</v>
       </c>
       <c r="C65">
-        <v>0.03230566566375684</v>
+        <v>0.03057154992159499</v>
       </c>
       <c r="D65">
-        <v>-0.02719385368871245</v>
+        <v>-0.04439380874282729</v>
       </c>
       <c r="E65">
-        <v>0.04356828587402153</v>
+        <v>-0.003199001356719709</v>
       </c>
       <c r="F65">
-        <v>0.0689289952906917</v>
+        <v>-0.04015320213669752</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.105890556170742</v>
+        <v>-0.1347445711971749</v>
       </c>
       <c r="C66">
-        <v>0.1081175574204708</v>
+        <v>0.01759711737386422</v>
       </c>
       <c r="D66">
-        <v>-0.1201590788192455</v>
+        <v>0.1286382740262397</v>
       </c>
       <c r="E66">
-        <v>0.1230289965289016</v>
+        <v>-0.05801689081971486</v>
       </c>
       <c r="F66">
-        <v>0.09945282337636888</v>
+        <v>-0.04529199385566024</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08425058072730231</v>
+        <v>-0.06598337777525946</v>
       </c>
       <c r="C67">
-        <v>0.07261108548207165</v>
+        <v>0.004395191549207839</v>
       </c>
       <c r="D67">
-        <v>0.02269351692035636</v>
+        <v>0.056316506115582</v>
       </c>
       <c r="E67">
-        <v>0.1004918426890959</v>
+        <v>-0.01951036214244865</v>
       </c>
       <c r="F67">
-        <v>-0.08465930119977283</v>
+        <v>0.0434697425943157</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1313691330697639</v>
+        <v>-0.1106542738040256</v>
       </c>
       <c r="C68">
-        <v>-0.2714389437450854</v>
+        <v>0.02076994270049056</v>
       </c>
       <c r="D68">
-        <v>-0.01859509798889342</v>
+        <v>-0.2755013895327217</v>
       </c>
       <c r="E68">
-        <v>0.03329508074285464</v>
+        <v>0.08497713112770039</v>
       </c>
       <c r="F68">
-        <v>0.03475106967078122</v>
+        <v>-0.05212951054442474</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04388457442756707</v>
+        <v>-0.04069981012645902</v>
       </c>
       <c r="C69">
-        <v>0.02005994903300218</v>
+        <v>0.001130382452780562</v>
       </c>
       <c r="D69">
-        <v>0.009928294820607813</v>
+        <v>0.009053349785960329</v>
       </c>
       <c r="E69">
-        <v>0.04733385279615929</v>
+        <v>-0.02611608389570995</v>
       </c>
       <c r="F69">
-        <v>-0.007712155711719743</v>
+        <v>0.01690939382104078</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05440158269727134</v>
+        <v>-0.06535665759443694</v>
       </c>
       <c r="C70">
-        <v>0.05786392814312057</v>
+        <v>-0.02696703533272704</v>
       </c>
       <c r="D70">
-        <v>-0.02974394096741802</v>
+        <v>0.004433004049626349</v>
       </c>
       <c r="E70">
-        <v>0.0258942794739385</v>
+        <v>0.04355580867435169</v>
       </c>
       <c r="F70">
-        <v>0.05230354659699841</v>
+        <v>0.3337301450141387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1482988834537045</v>
+        <v>-0.1294221951759895</v>
       </c>
       <c r="C71">
-        <v>-0.2781784773295995</v>
+        <v>0.02417885011777206</v>
       </c>
       <c r="D71">
-        <v>-0.01125211667414487</v>
+        <v>-0.2914437000394027</v>
       </c>
       <c r="E71">
-        <v>0.04195249645190556</v>
+        <v>0.09257132949297374</v>
       </c>
       <c r="F71">
-        <v>0.04702760857680321</v>
+        <v>-0.0544256441979832</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1261315060359089</v>
+        <v>-0.1383170659072125</v>
       </c>
       <c r="C72">
-        <v>0.03022258313379333</v>
+        <v>0.02392935103849637</v>
       </c>
       <c r="D72">
-        <v>-0.01365833909820764</v>
+        <v>0.01150244822884981</v>
       </c>
       <c r="E72">
-        <v>0.07309081448455312</v>
+        <v>-0.04221219886106642</v>
       </c>
       <c r="F72">
-        <v>0.01827408311848075</v>
+        <v>-0.02548012878405418</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2163145571923625</v>
+        <v>-0.21027350050621</v>
       </c>
       <c r="C73">
-        <v>0.131594932092681</v>
+        <v>0.01173636746117144</v>
       </c>
       <c r="D73">
-        <v>-0.1337149855780472</v>
+        <v>0.02574506533562517</v>
       </c>
       <c r="E73">
-        <v>-0.03671297293519869</v>
+        <v>-0.07247439969291368</v>
       </c>
       <c r="F73">
-        <v>-0.4708959905818022</v>
+        <v>-0.02015409114862221</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08390552326469571</v>
+        <v>-0.09401957295868674</v>
       </c>
       <c r="C74">
-        <v>0.08404611545828636</v>
+        <v>0.01168904850795745</v>
       </c>
       <c r="D74">
-        <v>-0.005490623159184927</v>
+        <v>0.03028175813205376</v>
       </c>
       <c r="E74">
-        <v>0.07494733717594615</v>
+        <v>-0.05225710066454013</v>
       </c>
       <c r="F74">
-        <v>-0.05530788651983882</v>
+        <v>-0.03934443389253539</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08536626388944182</v>
+        <v>-0.1297009954499719</v>
       </c>
       <c r="C75">
-        <v>0.06347944656064475</v>
+        <v>0.02578672223196615</v>
       </c>
       <c r="D75">
-        <v>-0.005436885839219446</v>
+        <v>0.04122416673155231</v>
       </c>
       <c r="E75">
-        <v>0.01534779293789449</v>
+        <v>-0.05945036069020076</v>
       </c>
       <c r="F75">
-        <v>-0.01515466599484013</v>
+        <v>-0.00454422847596867</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.08202874335186501</v>
+        <v>-0.009482571892586333</v>
       </c>
       <c r="C76">
-        <v>0.08369630579767386</v>
+        <v>0.002106915194421449</v>
       </c>
       <c r="D76">
-        <v>-0.001214040822390387</v>
+        <v>0.004545653615806782</v>
       </c>
       <c r="E76">
-        <v>0.007321949163773899</v>
+        <v>-0.009856060925888666</v>
       </c>
       <c r="F76">
-        <v>-0.06081730569175175</v>
+        <v>-0.003495018254531426</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06727148478385503</v>
+        <v>-0.08142595798620986</v>
       </c>
       <c r="C77">
-        <v>0.01529540154463709</v>
+        <v>0.0124084850428762</v>
       </c>
       <c r="D77">
-        <v>-0.04648477284710278</v>
+        <v>0.09702720477884834</v>
       </c>
       <c r="E77">
-        <v>0.007152979711452396</v>
+        <v>-0.03061262694573191</v>
       </c>
       <c r="F77">
-        <v>0.2913860930351265</v>
+        <v>-0.04352132485911731</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1904901903290876</v>
+        <v>-0.1110427627548426</v>
       </c>
       <c r="C78">
-        <v>0.1506837986540905</v>
+        <v>0.04473215117116624</v>
       </c>
       <c r="D78">
-        <v>0.1722724607312253</v>
+        <v>0.1161316054612118</v>
       </c>
       <c r="E78">
-        <v>-0.5919211371884916</v>
+        <v>-0.09054934991045555</v>
       </c>
       <c r="F78">
-        <v>0.2353100623194228</v>
+        <v>-0.07614289683563191</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1291223806624697</v>
+        <v>-0.162346901946127</v>
       </c>
       <c r="C79">
-        <v>0.07909767364720252</v>
+        <v>0.01984484892143895</v>
       </c>
       <c r="D79">
-        <v>0.006127528057447302</v>
+        <v>0.025216314833262</v>
       </c>
       <c r="E79">
-        <v>0.03732883379508005</v>
+        <v>-0.04915121180554585</v>
       </c>
       <c r="F79">
-        <v>-0.02063759486898704</v>
+        <v>-0.003656638935024565</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06898447373900433</v>
+        <v>-0.08012944873631019</v>
       </c>
       <c r="C80">
-        <v>0.03800354861681577</v>
+        <v>-0.001310690160955696</v>
       </c>
       <c r="D80">
-        <v>-0.07897771828877345</v>
+        <v>0.05130682491189312</v>
       </c>
       <c r="E80">
-        <v>0.05929777272687706</v>
+        <v>-0.02779870228495798</v>
       </c>
       <c r="F80">
-        <v>-0.003224862720782332</v>
+        <v>0.01096634672577154</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1199704593821862</v>
+        <v>-0.1217893560215964</v>
       </c>
       <c r="C81">
-        <v>0.05259253660325084</v>
+        <v>0.02942839674394889</v>
       </c>
       <c r="D81">
-        <v>0.00903114369586222</v>
+        <v>0.03153511474802322</v>
       </c>
       <c r="E81">
-        <v>0.05679602994711364</v>
+        <v>-0.05882808600380396</v>
       </c>
       <c r="F81">
-        <v>0.02809858003907562</v>
+        <v>0.006093246697535482</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1178442223732183</v>
+        <v>-0.1622310072272712</v>
       </c>
       <c r="C82">
-        <v>0.05891638239504944</v>
+        <v>0.02023381151043189</v>
       </c>
       <c r="D82">
-        <v>-0.004368385615345888</v>
+        <v>0.0243072700792845</v>
       </c>
       <c r="E82">
-        <v>0.08290345817235462</v>
+        <v>-0.03522469370838099</v>
       </c>
       <c r="F82">
-        <v>-0.03755642634423584</v>
+        <v>-0.04897079253912121</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08500268712973939</v>
+        <v>-0.06641295089299008</v>
       </c>
       <c r="C83">
-        <v>0.08505812360949383</v>
+        <v>0.00447719416557741</v>
       </c>
       <c r="D83">
-        <v>-0.01612849875802258</v>
+        <v>0.0460635990299576</v>
       </c>
       <c r="E83">
-        <v>0.09958555405516258</v>
+        <v>-0.003272415203570502</v>
       </c>
       <c r="F83">
-        <v>-0.007911982987428059</v>
+        <v>0.0282987355816578</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.03803397821116706</v>
+        <v>-0.06063931150833596</v>
       </c>
       <c r="C84">
-        <v>-0.05602862478754744</v>
+        <v>0.01200175472638531</v>
       </c>
       <c r="D84">
-        <v>-0.03400416472076999</v>
+        <v>0.05757082094013041</v>
       </c>
       <c r="E84">
-        <v>-0.1968848679387286</v>
+        <v>0.003873822108597898</v>
       </c>
       <c r="F84">
-        <v>0.1097447703617073</v>
+        <v>-0.01442156834531978</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1196385552803188</v>
+        <v>-0.1374331580342275</v>
       </c>
       <c r="C85">
-        <v>0.05601218500325309</v>
+        <v>0.02516382008388525</v>
       </c>
       <c r="D85">
-        <v>-0.01113753724752198</v>
+        <v>0.02408507156463968</v>
       </c>
       <c r="E85">
-        <v>0.05063350972821527</v>
+        <v>-0.04121613229834415</v>
       </c>
       <c r="F85">
-        <v>-0.04069516117458152</v>
+        <v>-0.03805403426671698</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08711796365409658</v>
+        <v>-0.09961724980070431</v>
       </c>
       <c r="C86">
-        <v>0.01347695658510625</v>
+        <v>-0.006486404129891602</v>
       </c>
       <c r="D86">
-        <v>0.03362368486715735</v>
+        <v>0.008624363403195407</v>
       </c>
       <c r="E86">
-        <v>-0.5399592347186127</v>
+        <v>-0.1278342276701734</v>
       </c>
       <c r="F86">
-        <v>-0.00343878339740729</v>
+        <v>0.8289200064548319</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.117724202289295</v>
+        <v>-0.1025474294410156</v>
       </c>
       <c r="C87">
-        <v>0.06657083214043537</v>
+        <v>0.02600037977023226</v>
       </c>
       <c r="D87">
-        <v>0.01790807104705662</v>
+        <v>0.06753430342903136</v>
       </c>
       <c r="E87">
-        <v>0.001647113762787281</v>
+        <v>0.05243347490071042</v>
       </c>
       <c r="F87">
-        <v>0.09212035441575557</v>
+        <v>-0.09395421558593173</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06169912347655045</v>
+        <v>-0.06062564919877938</v>
       </c>
       <c r="C88">
-        <v>0.06340712742284348</v>
+        <v>0.003753051502987003</v>
       </c>
       <c r="D88">
-        <v>-0.04125373296954197</v>
+        <v>0.05791550946667108</v>
       </c>
       <c r="E88">
-        <v>0.03214901040278587</v>
+        <v>-0.02378685917323339</v>
       </c>
       <c r="F88">
-        <v>0.007854984148922691</v>
+        <v>-0.007886157368343171</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2377386951816763</v>
+        <v>-0.1319015979017043</v>
       </c>
       <c r="C89">
-        <v>-0.3659235005400445</v>
+        <v>0.003611441942995213</v>
       </c>
       <c r="D89">
-        <v>0.04929267441286325</v>
+        <v>-0.2797860434072986</v>
       </c>
       <c r="E89">
-        <v>-0.02311751902627044</v>
+        <v>0.09058048719471079</v>
       </c>
       <c r="F89">
-        <v>-0.01597557430383174</v>
+        <v>-0.03674219407571148</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.156744793238611</v>
+        <v>-0.1403356851620273</v>
       </c>
       <c r="C90">
-        <v>-0.2604336046535128</v>
+        <v>0.02026623756032584</v>
       </c>
       <c r="D90">
-        <v>-0.008233047793545957</v>
+        <v>-0.2771352139844704</v>
       </c>
       <c r="E90">
-        <v>0.02283964440947562</v>
+        <v>0.1049279107133272</v>
       </c>
       <c r="F90">
-        <v>0.007657606438102817</v>
+        <v>-0.04169340897251268</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07151150531570567</v>
+        <v>-0.1163804678500407</v>
       </c>
       <c r="C91">
-        <v>0.05862673891943347</v>
+        <v>0.01584431563631454</v>
       </c>
       <c r="D91">
-        <v>0.007843443059110623</v>
+        <v>0.006064780480449896</v>
       </c>
       <c r="E91">
-        <v>-0.02048299061210453</v>
+        <v>-0.05948209682542389</v>
       </c>
       <c r="F91">
-        <v>-0.01034840103301181</v>
+        <v>0.03261024333508977</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1731007983309507</v>
+        <v>-0.1442739981064287</v>
       </c>
       <c r="C92">
-        <v>-0.2941985581626108</v>
+        <v>0.01115775776890284</v>
       </c>
       <c r="D92">
-        <v>0.02731744065462599</v>
+        <v>-0.3129630795325349</v>
       </c>
       <c r="E92">
-        <v>0.001327516442738737</v>
+        <v>0.09905332422687933</v>
       </c>
       <c r="F92">
-        <v>0.03735346476027832</v>
+        <v>-0.03216411246838994</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1738125600529103</v>
+        <v>-0.1458116181317539</v>
       </c>
       <c r="C93">
-        <v>-0.3038851682917665</v>
+        <v>0.01655058209257991</v>
       </c>
       <c r="D93">
-        <v>-0.04006815031445596</v>
+        <v>-0.2809612928824476</v>
       </c>
       <c r="E93">
-        <v>0.0045694145907353</v>
+        <v>0.06951401797658548</v>
       </c>
       <c r="F93">
-        <v>0.01362533223326309</v>
+        <v>-0.03111819168550869</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1136107609021454</v>
+        <v>-0.1331427727908502</v>
       </c>
       <c r="C94">
-        <v>0.08147505507775314</v>
+        <v>0.02339132754958931</v>
       </c>
       <c r="D94">
-        <v>0.005084633219256336</v>
+        <v>0.05361249854136699</v>
       </c>
       <c r="E94">
-        <v>0.02516774781299477</v>
+        <v>-0.06157111635577304</v>
       </c>
       <c r="F94">
-        <v>-0.05368551204083779</v>
+        <v>-0.02338436546477505</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1489397614932916</v>
+        <v>-0.1277066913781214</v>
       </c>
       <c r="C95">
-        <v>0.05926368435678465</v>
+        <v>0.006630171977683317</v>
       </c>
       <c r="D95">
-        <v>0.01637256517697235</v>
+        <v>0.08648904184066501</v>
       </c>
       <c r="E95">
-        <v>-0.07778177710436386</v>
+        <v>-0.03963251003784455</v>
       </c>
       <c r="F95">
-        <v>0.05721275545344726</v>
+        <v>0.008302157708823218</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09424723518493978</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.9894516523103828</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01125241008938296</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06087059457314942</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05048920338708125</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1172539035061469</v>
+        <v>-0.1869968192063783</v>
       </c>
       <c r="C97">
-        <v>-0.01402678516021553</v>
+        <v>-0.01317951068781958</v>
       </c>
       <c r="D97">
-        <v>0.01298831960364711</v>
+        <v>-0.006928185642603735</v>
       </c>
       <c r="E97">
-        <v>0.2994174162910475</v>
+        <v>-0.01287460643296557</v>
       </c>
       <c r="F97">
-        <v>0.1027284844512864</v>
+        <v>0.171633450234225</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2536233435560602</v>
+        <v>-0.2076429237815109</v>
       </c>
       <c r="C98">
-        <v>0.1283269938272753</v>
+        <v>0.007401668669728906</v>
       </c>
       <c r="D98">
-        <v>0.05966774328200394</v>
+        <v>0.01610218453543331</v>
       </c>
       <c r="E98">
-        <v>-0.06237183572988268</v>
+        <v>0.0864452274876079</v>
       </c>
       <c r="F98">
-        <v>-0.2617221718784459</v>
+        <v>0.1454040268033693</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07395510871187327</v>
+        <v>-0.05784534727690756</v>
       </c>
       <c r="C99">
-        <v>0.05698075936372453</v>
+        <v>-0.002909178927701604</v>
       </c>
       <c r="D99">
-        <v>0.01708791871401801</v>
+        <v>0.03006336520133001</v>
       </c>
       <c r="E99">
-        <v>-0.00914251875945183</v>
+        <v>-0.02581007923935957</v>
       </c>
       <c r="F99">
-        <v>-0.03510380202724365</v>
+        <v>-0.005460414979356433</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1231710735605706</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04741534705389373</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3231032388246973</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9073777496891423</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05835386685061986</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04251824107841889</v>
+        <v>-0.02748679953074196</v>
       </c>
       <c r="C101">
-        <v>0.02786546470964682</v>
+        <v>0.009342524853204887</v>
       </c>
       <c r="D101">
-        <v>-0.01030145273206092</v>
+        <v>0.0251220304583055</v>
       </c>
       <c r="E101">
-        <v>0.01506434844241606</v>
+        <v>-0.008205831122860519</v>
       </c>
       <c r="F101">
-        <v>0.05548728777218074</v>
+        <v>0.007818059360626585</v>
       </c>
     </row>
     <row r="102" spans="1:6">
